--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -183,9 +183,6 @@
     <t>auxillaryHash</t>
   </si>
   <si>
-    <t>selected_plot</t>
-  </si>
-  <si>
     <t>[ '0' ]</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Beetle Selected</t>
+  </si>
+  <si>
+    <t>plot_id</t>
   </si>
 </sst>
 </file>
@@ -613,6 +613,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -940,11 +945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
@@ -955,7 +960,7 @@
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -978,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -987,13 +992,13 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1015,15 +1020,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -1035,105 +1040,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1147,127 +1152,127 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1294,10 +1299,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
@@ -1305,7 +1310,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1328,10 +1333,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1340,10 +1345,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1352,77 +1357,77 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1431,10 +1436,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1443,10 +1448,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1460,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1474,10 +1479,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1488,7 +1493,7 @@
     <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1523,13 +1528,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1551,14 +1556,14 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1590,7 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -318,7 +318,7 @@
     <t>Beetle Selected</t>
   </si>
   <si>
-    <t>plot_id</t>
+    <t>plot_name</t>
   </si>
 </sst>
 </file>
@@ -946,10 +946,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
@@ -960,7 +960,7 @@
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1020,13 +1020,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>78</v>
@@ -1049,7 +1049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
@@ -1059,13 +1059,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>78</v>
@@ -1074,7 +1074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
@@ -1084,13 +1084,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>78</v>
@@ -1099,7 +1099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -1109,19 +1109,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1132,13 +1132,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>78</v>
@@ -1161,7 +1161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
@@ -1171,13 +1171,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>78</v>
@@ -1186,7 +1186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
@@ -1196,13 +1196,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>78</v>
@@ -1211,7 +1211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
@@ -1221,13 +1221,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>78</v>
@@ -1236,7 +1236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
@@ -1246,19 +1246,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:7">
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:7">
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
@@ -1310,7 +1310,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1360,12 +1360,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1410,12 +1410,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1482,7 +1482,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1493,7 +1493,7 @@
     <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1556,14 +1556,14 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>plot_id &gt;= ?</t>
   </si>
   <si>
-    <t>'plot_id&gt;='+escape(0)</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>plot_name</t>
+  </si>
+  <si>
+    <t>'plot_id&gt;='+encodeURIComponent(0)</t>
   </si>
 </sst>
 </file>
@@ -945,11 +945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
@@ -960,7 +960,7 @@
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -992,13 +992,13 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1020,15 +1020,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -1040,105 +1040,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1152,127 +1152,127 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
@@ -1310,7 +1310,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1333,10 +1333,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1345,10 +1345,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1357,77 +1357,77 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1436,10 +1436,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1448,10 +1448,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1478,11 +1478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1493,7 +1493,7 @@
     <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1556,14 +1556,14 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>setting_name</t>
   </si>
@@ -168,9 +168,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>What is the height of the plant in feet?</t>
-  </si>
-  <si>
     <t>select_linked_plot</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>[ '0' ]</t>
   </si>
   <si>
-    <t>plot_id &gt;= ?</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -315,17 +309,29 @@
     <t>Beetle Selected</t>
   </si>
   <si>
-    <t>plot_name</t>
-  </si>
-  <si>
     <t>'plot_id&gt;='+encodeURIComponent(0)</t>
+  </si>
+  <si>
+    <t>_id &gt;= ?</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>What is the height of the plant in inches?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +368,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -485,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -517,6 +529,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -945,22 +960,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -983,13 +998,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>97</v>
@@ -998,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1009,29 +1024,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1040,105 +1055,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1152,127 +1167,127 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1317,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
@@ -1310,7 +1325,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1324,110 +1339,110 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1436,10 +1451,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1448,10 +1463,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1475,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1478,14 +1493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -1493,7 +1508,7 @@
     <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1513,12 +1528,12 @@
         <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1528,13 +1543,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1550,20 +1565,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1590,12 +1605,28 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="3260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>setting_name</t>
   </si>
@@ -186,9 +186,6 @@
     <t>[ '0' ]</t>
   </si>
   <si>
-    <t>plot_id &gt;= ?</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -315,10 +312,16 @@
     <t>Beetle Selected</t>
   </si>
   <si>
-    <t>plot_name</t>
-  </si>
-  <si>
     <t>'plot_id&gt;='+encodeURIComponent(0)</t>
+  </si>
+  <si>
+    <t>_id &gt;= ?</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -945,22 +948,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -983,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -992,13 +995,13 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1020,15 +1023,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -1040,105 +1043,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1152,127 +1155,127 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1305,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
@@ -1310,7 +1313,7 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1333,10 +1336,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1345,10 +1348,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1357,77 +1360,77 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1436,10 +1439,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1448,10 +1451,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1478,14 +1481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -1493,7 +1496,7 @@
     <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1528,13 +1531,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1550,20 +1553,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1590,12 +1593,20 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/visit/forms/visit/visit.xlsx
+++ b/app/tables/visit/forms/visit/visit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>setting_name</t>
   </si>
@@ -168,9 +168,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>What is the height of the plant in feet?</t>
-  </si>
-  <si>
     <t>select_linked_plot</t>
   </si>
   <si>
@@ -322,13 +319,19 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>What is the height of the plant in inches?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +368,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -488,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -520,6 +529,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -948,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -992,10 +1004,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
@@ -1017,24 +1029,24 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1046,98 +1058,98 @@
     <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1158,107 +1170,107 @@
     <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="4:7">
@@ -1266,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="4:7">
@@ -1329,38 +1341,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1370,47 +1382,47 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1423,11 +1435,11 @@
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1439,7 +1451,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1451,7 +1463,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1463,7 +1475,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1516,12 +1528,12 @@
         <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
@@ -1531,13 +1543,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1553,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1603,10 +1615,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
